--- a/biology/Médecine/Two_Point_Hospital/Two_Point_Hospital.xlsx
+++ b/biology/Médecine/Two_Point_Hospital/Two_Point_Hospital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Two Point Hospital est un jeu vidéo de gestion édité par Sega et développé par Two Point Studios sorti le 30 août 2018 sur Windows et MacOS.
 Trois DLC sont sortis entre fin 2018 et août 2019.
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,9 +553,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>PC Gamer : 89 %[1]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>PC Gamer : 89 %</t>
         </is>
       </c>
     </row>
